--- a/Shipping Routes.xlsx
+++ b/Shipping Routes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HopeE\Documents\PSA Hackathon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HopeE\Documents\GitHub\PSAHackathon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8204851E-6C33-4790-A958-2A1114F3D348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86838FCE-2128-409B-8889-0E635627BD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8E8F3184-DD46-4D84-BB5F-3BA9345F95EC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="27">
   <si>
     <t>Departure/Arrival</t>
   </si>
@@ -108,13 +108,22 @@
   </si>
   <si>
     <t>THAI CONNECTIVITY</t>
+  </si>
+  <si>
+    <t>Land</t>
+  </si>
+  <si>
+    <t>Sea</t>
+  </si>
+  <si>
+    <t>Air</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,11 +145,24 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="20"/>
+      <sz val="24"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -163,14 +185,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -178,6 +194,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -514,248 +542,514 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3B0043-D06C-4EC3-A754-7E849F7BB728}">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:AX19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AX22" sqref="AX22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="31" style="4" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="28" style="4" customWidth="1"/>
-    <col min="7" max="7" width="29" style="4" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="4" customWidth="1"/>
-    <col min="14" max="14" width="32.85546875" style="4" customWidth="1"/>
-    <col min="15" max="15" width="20.140625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="19.5703125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="16.140625" style="4" customWidth="1"/>
-    <col min="18" max="18" width="22.140625" style="4" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="24.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="2" customWidth="1"/>
+    <col min="8" max="10" width="16.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="21" style="2" customWidth="1"/>
+    <col min="13" max="13" width="18" style="2" customWidth="1"/>
+    <col min="14" max="14" width="19.85546875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="20.85546875" style="2" customWidth="1"/>
+    <col min="17" max="19" width="17.85546875" style="2" customWidth="1"/>
+    <col min="20" max="22" width="22.7109375" style="2" customWidth="1"/>
+    <col min="23" max="25" width="21.28515625" style="2" customWidth="1"/>
+    <col min="26" max="28" width="16.42578125" style="2" customWidth="1"/>
+    <col min="29" max="29" width="24.7109375" style="2" customWidth="1"/>
+    <col min="30" max="30" width="16.42578125" style="2" customWidth="1"/>
+    <col min="31" max="31" width="17.42578125" style="2" customWidth="1"/>
+    <col min="32" max="34" width="15.42578125" style="2" customWidth="1"/>
+    <col min="35" max="37" width="18.7109375" style="2" customWidth="1"/>
+    <col min="38" max="40" width="14.28515625" style="2" customWidth="1"/>
+    <col min="41" max="43" width="18.28515625" style="2" customWidth="1"/>
+    <col min="44" max="46" width="19.5703125" style="2" customWidth="1"/>
+    <col min="47" max="49" width="16.140625" style="2" customWidth="1"/>
+    <col min="50" max="50" width="22.140625" style="2" customWidth="1"/>
+    <col min="51" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:50" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="2" t="s">
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3" t="s">
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="2" t="s">
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="C2" s="4" t="s">
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="4"/>
+    </row>
+    <row r="2" spans="1:50" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="AE2" s="7"/>
+      <c r="AF2" s="7"/>
+      <c r="AG2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="AH2" s="7"/>
+      <c r="AI2" s="7"/>
+      <c r="AJ2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="AK2" s="7"/>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AP2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="AT2" s="6"/>
+      <c r="AU2" s="6"/>
+      <c r="AV2" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="AW2" s="6"/>
+      <c r="AX2" s="6"/>
+    </row>
+    <row r="3" spans="1:50" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:50" ht="24" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+    </row>
+    <row r="5" spans="1:50" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+    </row>
+    <row r="6" spans="1:50" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+    </row>
+    <row r="7" spans="1:50" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4" t="s">
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+    </row>
+    <row r="8" spans="1:50" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:18" ht="24" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+    </row>
+    <row r="9" spans="1:50" ht="24" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+    </row>
+    <row r="10" spans="1:50" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:50" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:50" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:50" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:50" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:50" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:50" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4" t="s">
+    <row r="18" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="24" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="19" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="28">
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="AV2:AX2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="U1:AO1"/>
+    <mergeCell ref="AP2:AR2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="AP1:AU1"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="L1:Q1"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A10:A16"/>
+    <mergeCell ref="A17:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -945,18 +1239,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -979,14 +1273,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A6CE7B1-110F-486C-8432-5888437A2F38}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52DB6851-0F88-4764-A2AC-B6F37274E0AF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -1001,4 +1287,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A6CE7B1-110F-486C-8432-5888437A2F38}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>